--- a/xlsx/電腦科學_intext.xlsx
+++ b/xlsx/電腦科學_intext.xlsx
@@ -29,7 +29,7 @@
     <t>科学</t>
   </si>
   <si>
-    <t>政策_政策_美國_電腦科學</t>
+    <t>体育运动_体育运动_技术_電腦科學</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E5%BC%8F%E7%A7%91%E5%AD%B8</t>
